--- a/src/api/data/鸿昇Part翻译.xlsx
+++ b/src/api/data/鸿昇Part翻译.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文(EngList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按销售额分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +216,18 @@
   </si>
   <si>
     <t>echart图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文(EngLish)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,74 +371,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,7 +405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -516,7 +443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -592,7 +519,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -627,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -662,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -839,236 +766,236 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +1005,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>